--- a/01-Excel/01-Activites/3/Activities/02-Ins_BasicCharting/Solved/BasicCharts.xlsx
+++ b/01-Excel/01-Activites/3/Activities/02-Ins_BasicCharting/Solved/BasicCharts.xlsx
@@ -1,25 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacob\OneDrive\Documents\WorkAndSchool\TeachingAssistant\DataViz\DataViz-Lesson-Plans\01-Lesson-Plans\01-Excel\3\Activities\02-Ins_BasicCharting\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dcorless/Documents/coding-boot-camp/DataViz-Lesson-Plans/01-Lesson-Plans/01-Excel/3/Activities/02-Ins_BasicCharting/Solved/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="F83C7F0B9C5BB36C676B768E03FEC89EF1BFA6B5" xr6:coauthVersionLast="21" xr6:coauthVersionMax="21" xr10:uidLastSave="{F5E47B7C-E461-45D1-AFA9-F37C2DE297AD}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFD8C936-385F-5A4E-A05B-D4CBA8A2CD2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14610" windowHeight="14070" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="14620" windowHeight="14080" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Favorite Ice Cream Flavors" sheetId="1" r:id="rId1"/>
     <sheet name="Ice Cream Sales" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1880,7 +1889,7 @@
                 <c:order val="4"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Ice Cream Sales'!$A$6</c15:sqref>
@@ -1909,7 +1918,7 @@
                 </c:marker>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Ice Cream Sales'!$B$1:$L$1</c15:sqref>
@@ -1956,7 +1965,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Ice Cream Sales'!$B$6:$L$6</c15:sqref>
@@ -2003,7 +2012,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000004-8B0B-41D6-BCCA-6C2E7079979C}"/>
                   </c:ext>
@@ -2016,7 +2025,7 @@
                 <c:order val="5"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Ice Cream Sales'!$A$7</c15:sqref>
@@ -2045,7 +2054,7 @@
                 </c:marker>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Ice Cream Sales'!$B$1:$L$1</c15:sqref>
@@ -2092,7 +2101,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Ice Cream Sales'!$B$7:$L$7</c15:sqref>
@@ -2139,7 +2148,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000005-8B0B-41D6-BCCA-6C2E7079979C}"/>
                   </c:ext>
@@ -2152,7 +2161,7 @@
                 <c:order val="6"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Ice Cream Sales'!$A$8</c15:sqref>
@@ -2183,7 +2192,7 @@
                 </c:marker>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Ice Cream Sales'!$B$1:$L$1</c15:sqref>
@@ -2230,7 +2239,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Ice Cream Sales'!$B$8:$L$8</c15:sqref>
@@ -2277,7 +2286,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000006-8B0B-41D6-BCCA-6C2E7079979C}"/>
                   </c:ext>
@@ -2290,7 +2299,7 @@
                 <c:order val="7"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Ice Cream Sales'!$A$9</c15:sqref>
@@ -2321,7 +2330,7 @@
                 </c:marker>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Ice Cream Sales'!$B$1:$L$1</c15:sqref>
@@ -2368,7 +2377,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Ice Cream Sales'!$B$9:$L$9</c15:sqref>
@@ -2415,7 +2424,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000007-8B0B-41D6-BCCA-6C2E7079979C}"/>
                   </c:ext>
@@ -2428,7 +2437,7 @@
                 <c:order val="8"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Ice Cream Sales'!$A$10</c15:sqref>
@@ -2459,7 +2468,7 @@
                 </c:marker>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Ice Cream Sales'!$B$1:$L$1</c15:sqref>
@@ -2506,7 +2515,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Ice Cream Sales'!$B$10:$L$10</c15:sqref>
@@ -2553,7 +2562,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000008-8B0B-41D6-BCCA-6C2E7079979C}"/>
                   </c:ext>
@@ -2566,7 +2575,7 @@
                 <c:order val="9"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Ice Cream Sales'!$A$11</c15:sqref>
@@ -2597,7 +2606,7 @@
                 </c:marker>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Ice Cream Sales'!$B$1:$L$1</c15:sqref>
@@ -2644,7 +2653,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Ice Cream Sales'!$B$11:$L$11</c15:sqref>
@@ -2691,7 +2700,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000009-8B0B-41D6-BCCA-6C2E7079979C}"/>
                   </c:ext>
@@ -4960,12 +4969,12 @@
       <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="8" width="20.73046875" customWidth="1"/>
+    <col min="1" max="8" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -4978,7 +4987,7 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -4990,7 +4999,7 @@
         <v>0.11166666666666666</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -5002,7 +5011,7 @@
         <v>8.8333333333333333E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -5014,7 +5023,7 @@
         <v>0.10666666666666667</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -5026,7 +5035,7 @@
         <v>0.15666666666666668</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -5038,7 +5047,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -5050,7 +5059,7 @@
         <v>0.13166666666666665</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -5062,7 +5071,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -5074,7 +5083,7 @@
         <v>6.8333333333333329E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -5086,7 +5095,7 @@
         <v>5.6666666666666664E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -5098,12 +5107,12 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <f>SUM(B2:B11)</f>
         <v>600</v>
@@ -5124,13 +5133,13 @@
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.73046875" customWidth="1"/>
-    <col min="2" max="8" width="8.73046875" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" customWidth="1"/>
+    <col min="2" max="8" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>14</v>
       </c>
@@ -5165,7 +5174,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -5203,7 +5212,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -5241,7 +5250,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -5279,7 +5288,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -5317,7 +5326,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -5355,7 +5364,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -5393,7 +5402,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -5431,7 +5440,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -5469,7 +5478,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -5507,7 +5516,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
